--- a/apis/site_incharge_excel/excel_format.xlsx
+++ b/apis/site_incharge_excel/excel_format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40139\Documents\lubrication portal notes 6th november\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40139\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986376CB-1B3D-40CA-B19B-0330131C6659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7D4CBB-D264-4B15-809F-2170794E3533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0916D684-D0C6-44BE-BCE7-7AB3931651E4}"/>
   </bookViews>
@@ -36,64 +36,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>STATE</t>
   </si>
   <si>
-    <t>RAJASTHAN</t>
-  </si>
-  <si>
-    <t>Tejuva</t>
-  </si>
-  <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
     <t>STATE ENGG HEAD</t>
   </si>
   <si>
-    <t>AREA INCHARGE</t>
-  </si>
-  <si>
-    <t>Baramsar II</t>
-  </si>
-  <si>
-    <t>vhiralal@suzlon.com</t>
-  </si>
-  <si>
-    <t>lakhveer.jammu@suzlon.com</t>
-  </si>
-  <si>
-    <t>Singh.Anand@suzlon.com</t>
-  </si>
-  <si>
-    <t>SITE INCHARGE</t>
-  </si>
-  <si>
-    <t>STATE PMO</t>
-  </si>
-  <si>
-    <t>kuldeep.singh@suzlon.com</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>meet.somaiya@suzlon.com</t>
-  </si>
-  <si>
-    <t>dummyuser@suzlon.com</t>
+    <t>SR NO</t>
+  </si>
+  <si>
+    <t>SAP FUNCTIONAL LOCATION</t>
+  </si>
+  <si>
+    <t>NEW AREA</t>
+  </si>
+  <si>
+    <t>NEW MAIN SITE</t>
+  </si>
+  <si>
+    <t>Maintenance Plant</t>
+  </si>
+  <si>
+    <t>AREA INCHARGE ( NEW)</t>
+  </si>
+  <si>
+    <t>SITE INCHARGES</t>
+  </si>
+  <si>
+    <t>STATE PM0</t>
+  </si>
+  <si>
+    <t>MAINTENNACE INCHARGES</t>
+  </si>
+  <si>
+    <t>GEAR BOX TEAM</t>
+  </si>
+  <si>
+    <t>SWSADR-SC2-GSP21-GSR15</t>
+  </si>
+  <si>
+    <t>GUJARAT-Saurashtra</t>
+  </si>
+  <si>
+    <t>Kuchadi</t>
+  </si>
+  <si>
+    <t>Kuchhadi</t>
+  </si>
+  <si>
+    <t>bchampak@suzlon.com</t>
+  </si>
+  <si>
+    <t>jitesh.visavadia@suzlon.com</t>
+  </si>
+  <si>
+    <t>parth.meheta@suzlon.com</t>
+  </si>
+  <si>
+    <t>bala.p@suzlon.com</t>
+  </si>
+  <si>
+    <t>Nilesh.Singanjude@suzlon.com</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>SWSBHT-SC8-THD01-BND155</t>
+  </si>
+  <si>
+    <t>Bhanvad</t>
+  </si>
+  <si>
+    <t>ravibhai.dodiya@suzlon.com</t>
+  </si>
+  <si>
+    <t>SWSBHT-SC8-THD01-BND157</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,23 +129,102 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,20 +232,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -469,107 +660,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7715EA-20B6-4DEE-BDF0-BCF94FB84BFC}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2453</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2452</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2452</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>16</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{F7479E00-EE03-4E63-8CC9-61B45F1232CC}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{26A2F633-9BD6-4B8F-B352-3E3F7F5C3206}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{B6E5E4B5-4481-40E4-8895-9B6F2B82AF21}"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>